--- a/experiment/bank_sentiment_fasttext/analyze/score.xlsx
+++ b/experiment/bank_sentiment_fasttext/analyze/score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>TP</t>
   </si>
@@ -94,13 +94,16 @@
     <t>PAYMENT#POSITIVE</t>
   </si>
   <si>
+    <t>PROMOTION#NEUTRAL</t>
+  </si>
+  <si>
     <t>PROMOTION#POSITIVE</t>
   </si>
   <si>
     <t>SAVING#NEGATIVE</t>
   </si>
   <si>
-    <t>SECURITY#NEGATIVE</t>
+    <t>SECURITY#POSITIVE</t>
   </si>
   <si>
     <t>TRADEMARK#NEGATIVE</t>
@@ -455,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +500,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -581,28 +584,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -642,16 +645,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -700,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -787,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -845,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1019,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1048,16 +1051,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1106,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1132,28 +1135,57 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.36</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>208</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
